--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_13.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,547 +488,559 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['C', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:00:03.117845', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2554347826086957</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb/7', 'G:min', 'C', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'A:min', 'D', 'G', 'G']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(53.473877, 62.15814)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(28.601746, 38.911405)]</t>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:08.720000', '0:00:14.060000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:01:15.800000', '0:01:22.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,174 +1048,136 @@
           <t>schubert-winterreise_79</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:00:53.280000', '0:01:05.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.76, 25.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.74, 21.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
